--- a/CAP1/Entre_Labs/Dades NodeRed capitol 1.xlsx
+++ b/CAP1/Entre_Labs/Dades NodeRed capitol 1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Documents\GitHub\TFM\CAP1\Entre_Labs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE76B23-D990-442F-BE43-5ED24602292C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prova dins LAB" sheetId="1" r:id="rId1"/>
@@ -15,13 +21,23 @@
     <definedName name="DadesIOT" localSheetId="0">'Prova dins LAB'!$A$1:$O$456</definedName>
     <definedName name="DadesIOT__2" localSheetId="1">'Prova entre LABs'!$A$1:$O$478</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="DadesIOT" type="6" refreshedVersion="3" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="DadesIOT" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\Vicenç Salas\Desktop\DadesIOT.csv" decimal="," thousands="." comma="1">
       <textFields count="15">
         <textField/>
@@ -42,7 +58,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="DadesIOT (2)" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="DadesIOT (2)" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\Vicenç Salas\Desktop\DadesIOT (2).csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="15">
         <textField/>
@@ -67,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="38">
   <si>
     <t>HHT</t>
   </si>
@@ -170,12 +186,24 @@
   <si>
     <t>frequency</t>
   </si>
+  <si>
+    <t xml:space="preserve">PRR </t>
+  </si>
+  <si>
+    <t>Falten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Han arribat </t>
+  </si>
+  <si>
+    <t>PRR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,15 +253,23 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DadesIOT" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadesIOT" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DadesIOT (2)" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadesIOT (2)" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -279,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +347,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +399,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,33 +592,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q463"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T465"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="N466" sqref="N466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>59</v>
       </c>
@@ -646,7 +718,7 @@
         <v>0.53483796296296293</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>59</v>
       </c>
@@ -700,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>59</v>
       </c>
@@ -751,7 +823,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>59</v>
       </c>
@@ -802,7 +874,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>59</v>
       </c>
@@ -853,7 +925,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>59</v>
       </c>
@@ -907,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>58</v>
       </c>
@@ -958,7 +1030,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>58</v>
       </c>
@@ -1009,7 +1081,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>58</v>
       </c>
@@ -1063,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>58</v>
       </c>
@@ -1114,7 +1186,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>58</v>
       </c>
@@ -1165,7 +1237,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>58</v>
       </c>
@@ -1216,7 +1288,7 @@
         <v>3.6689814814814259E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>58</v>
       </c>
@@ -1269,8 +1341,15 @@
       <c r="Q14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14">
+        <f>SUM(Q2:Q299)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>58</v>
       </c>
@@ -1320,8 +1399,15 @@
         <f t="shared" si="0"/>
         <v>3.6111111111111205E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15">
+        <f>300-88</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>58</v>
       </c>
@@ -1371,8 +1457,15 @@
         <f t="shared" si="0"/>
         <v>3.5995370370370816E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16">
+        <f>T15/300</f>
+        <v>0.70666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>59</v>
       </c>
@@ -1423,7 +1516,7 @@
         <v>3.6111111111110095E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>59</v>
       </c>
@@ -1477,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>59</v>
       </c>
@@ -1528,7 +1621,7 @@
         <v>3.6342592592591982E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>59</v>
       </c>
@@ -1579,7 +1672,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>59</v>
       </c>
@@ -1630,7 +1723,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>59</v>
       </c>
@@ -1684,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>59</v>
       </c>
@@ -1735,7 +1828,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>59</v>
       </c>
@@ -1786,7 +1879,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>59</v>
       </c>
@@ -1837,7 +1930,7 @@
         <v>3.6689814814814259E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>59</v>
       </c>
@@ -1891,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>60</v>
       </c>
@@ -1942,7 +2035,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>60</v>
       </c>
@@ -1993,7 +2086,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>60</v>
       </c>
@@ -2044,7 +2137,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>60</v>
       </c>
@@ -2098,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>60</v>
       </c>
@@ -2149,7 +2242,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>60</v>
       </c>
@@ -2200,7 +2293,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>60</v>
       </c>
@@ -2251,7 +2344,7 @@
         <v>3.6342592592591982E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>60</v>
       </c>
@@ -2305,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>60</v>
       </c>
@@ -2356,7 +2449,7 @@
         <v>3.6342592592591982E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>60</v>
       </c>
@@ -2407,7 +2500,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>60</v>
       </c>
@@ -2458,7 +2551,7 @@
         <v>3.5995370370369706E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>60</v>
       </c>
@@ -2512,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>60</v>
       </c>
@@ -2563,7 +2656,7 @@
         <v>3.5995370370371926E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>60</v>
       </c>
@@ -2614,7 +2707,7 @@
         <v>3.6342592592590872E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>60</v>
       </c>
@@ -2668,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>60</v>
       </c>
@@ -2719,7 +2812,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>60</v>
       </c>
@@ -2770,7 +2863,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>60</v>
       </c>
@@ -2821,7 +2914,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>60</v>
       </c>
@@ -2875,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>60</v>
       </c>
@@ -2926,7 +3019,7 @@
         <v>3.5995370370369706E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>60</v>
       </c>
@@ -2977,7 +3070,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>60</v>
       </c>
@@ -3028,7 +3121,7 @@
         <v>3.6805555555555758E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>60</v>
       </c>
@@ -3082,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>60</v>
       </c>
@@ -3133,7 +3226,7 @@
         <v>3.6342592592591982E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>60</v>
       </c>
@@ -3184,7 +3277,7 @@
         <v>3.6111111111110095E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>60</v>
       </c>
@@ -3235,7 +3328,7 @@
         <v>3.6574074074076091E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>60</v>
       </c>
@@ -3289,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>60</v>
       </c>
@@ -3340,7 +3433,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>60</v>
       </c>
@@ -3391,7 +3484,7 @@
         <v>3.6111111111112315E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>60</v>
       </c>
@@ -3442,7 +3535,7 @@
         <v>3.6111111111110095E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>60</v>
       </c>
@@ -3496,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>60</v>
       </c>
@@ -3547,7 +3640,7 @@
         <v>3.6342592592591982E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>60</v>
       </c>
@@ -3598,7 +3691,7 @@
         <v>3.564814814814854E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -3649,7 +3742,7 @@
         <v>3.6689814814814259E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3703,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -3754,7 +3847,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -3805,7 +3898,7 @@
         <v>3.5995370370369706E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -3856,7 +3949,7 @@
         <v>3.657407407407498E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -3910,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>60</v>
       </c>
@@ -3961,7 +4054,7 @@
         <v>3.6805555555556868E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>60</v>
       </c>
@@ -4012,7 +4105,7 @@
         <v>3.4953703703701766E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>60</v>
       </c>
@@ -4063,7 +4156,7 @@
         <v>3.6805555555556868E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>60</v>
       </c>
@@ -4117,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>60</v>
       </c>
@@ -4171,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>60</v>
       </c>
@@ -4222,7 +4315,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>60</v>
       </c>
@@ -4276,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>60</v>
       </c>
@@ -4327,7 +4420,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>60</v>
       </c>
@@ -4378,7 +4471,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>60</v>
       </c>
@@ -4429,7 +4522,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>60</v>
       </c>
@@ -4483,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>60</v>
       </c>
@@ -4534,7 +4627,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>60</v>
       </c>
@@ -4585,7 +4678,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>60</v>
       </c>
@@ -4636,7 +4729,7 @@
         <v>3.6805555555555758E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>60</v>
       </c>
@@ -4690,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>60</v>
       </c>
@@ -4741,7 +4834,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>60</v>
       </c>
@@ -4792,7 +4885,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>60</v>
       </c>
@@ -4843,7 +4936,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>60</v>
       </c>
@@ -4897,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>60</v>
       </c>
@@ -4948,7 +5041,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>60</v>
       </c>
@@ -4999,7 +5092,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>60</v>
       </c>
@@ -5050,7 +5143,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>60</v>
       </c>
@@ -5104,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>60</v>
       </c>
@@ -5155,7 +5248,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>60</v>
       </c>
@@ -5206,7 +5299,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>60</v>
       </c>
@@ -5257,7 +5350,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>60</v>
       </c>
@@ -5311,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>60</v>
       </c>
@@ -5365,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>60</v>
       </c>
@@ -5419,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>60</v>
       </c>
@@ -5470,7 +5563,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>60</v>
       </c>
@@ -5521,7 +5614,7 @@
         <v>3.564814814814854E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>60</v>
       </c>
@@ -5572,7 +5665,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>59</v>
       </c>
@@ -5626,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>59</v>
       </c>
@@ -5677,7 +5770,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>59</v>
       </c>
@@ -5728,7 +5821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>59</v>
       </c>
@@ -5779,7 +5872,7 @@
         <v>3.6689814814814805E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>59</v>
       </c>
@@ -5833,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>59</v>
       </c>
@@ -5884,7 +5977,7 @@
         <v>3.6689814814814831E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>59</v>
       </c>
@@ -5935,7 +6028,7 @@
         <v>3.5300925925925916E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>59</v>
       </c>
@@ -5986,7 +6079,7 @@
         <v>3.6574074074074113E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>59</v>
       </c>
@@ -6040,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>59</v>
       </c>
@@ -6091,7 +6184,7 @@
         <v>3.5648148148148193E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>59</v>
       </c>
@@ -6142,7 +6235,7 @@
         <v>3.599537037037033E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>59</v>
       </c>
@@ -6193,7 +6286,7 @@
         <v>3.6689814814814883E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>59</v>
       </c>
@@ -6247,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>59</v>
       </c>
@@ -6298,7 +6391,7 @@
         <v>3.6574074074074078E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>59</v>
       </c>
@@ -6349,7 +6442,7 @@
         <v>3.5532407407407388E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>59</v>
       </c>
@@ -6400,7 +6493,7 @@
         <v>3.6342592592592607E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>59</v>
       </c>
@@ -6454,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>59</v>
       </c>
@@ -6505,7 +6598,7 @@
         <v>3.6458333333333204E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>59</v>
       </c>
@@ -6556,7 +6649,7 @@
         <v>3.5648148148148262E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>59</v>
       </c>
@@ -6607,7 +6700,7 @@
         <v>3.6458333333333204E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>59</v>
       </c>
@@ -6661,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>59</v>
       </c>
@@ -6715,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>59</v>
       </c>
@@ -6766,7 +6859,7 @@
         <v>3.6458333333333343E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>59</v>
       </c>
@@ -6820,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>59</v>
       </c>
@@ -6871,7 +6964,7 @@
         <v>3.622685185185201E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>59</v>
       </c>
@@ -6922,7 +7015,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>59</v>
       </c>
@@ -6973,7 +7066,7 @@
         <v>3.6574074074074009E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>59</v>
       </c>
@@ -7027,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>59</v>
       </c>
@@ -7078,7 +7171,7 @@
         <v>3.59953703703704E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>59</v>
       </c>
@@ -7129,7 +7222,7 @@
         <v>3.6111111111111344E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>59</v>
       </c>
@@ -7180,7 +7273,7 @@
         <v>3.6458333333333204E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>59</v>
       </c>
@@ -7234,7 +7327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>59</v>
       </c>
@@ -7285,7 +7378,7 @@
         <v>3.5648148148148262E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>59</v>
       </c>
@@ -7336,7 +7429,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>59</v>
       </c>
@@ -7390,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>59</v>
       </c>
@@ -7441,7 +7534,7 @@
         <v>3.6574074074074148E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>59</v>
       </c>
@@ -7492,7 +7585,7 @@
         <v>3.5532407407407318E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>59</v>
       </c>
@@ -7543,7 +7636,7 @@
         <v>3.6458333333333204E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>59</v>
       </c>
@@ -7597,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>59</v>
       </c>
@@ -7648,7 +7741,7 @@
         <v>3.5879629629629595E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>59</v>
       </c>
@@ -7699,7 +7792,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>59</v>
       </c>
@@ -7750,7 +7843,7 @@
         <v>3.6226851851851871E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>59</v>
       </c>
@@ -7804,7 +7897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>59</v>
       </c>
@@ -7855,7 +7948,7 @@
         <v>3.5879629629629595E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>59</v>
       </c>
@@ -7906,7 +7999,7 @@
         <v>3.6226851851851871E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>59</v>
       </c>
@@ -7960,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>59</v>
       </c>
@@ -8011,7 +8104,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>59</v>
       </c>
@@ -8062,7 +8155,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>59</v>
       </c>
@@ -8113,7 +8206,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>59</v>
       </c>
@@ -8167,7 +8260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>59</v>
       </c>
@@ -8218,7 +8311,7 @@
         <v>3.5879629629629872E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>59</v>
       </c>
@@ -8269,7 +8362,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>59</v>
       </c>
@@ -8320,7 +8413,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>59</v>
       </c>
@@ -8374,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>59</v>
       </c>
@@ -8425,7 +8518,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>59</v>
       </c>
@@ -8476,7 +8569,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>59</v>
       </c>
@@ -8527,7 +8620,7 @@
         <v>3.6574074074074425E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>59</v>
       </c>
@@ -8581,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>59</v>
       </c>
@@ -8635,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>59</v>
       </c>
@@ -8689,7 +8782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>59</v>
       </c>
@@ -8740,7 +8833,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>59</v>
       </c>
@@ -8791,7 +8884,7 @@
         <v>3.5648148148147984E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>59</v>
       </c>
@@ -8842,7 +8935,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>59</v>
       </c>
@@ -8896,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>59</v>
       </c>
@@ -8947,7 +9040,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>59</v>
       </c>
@@ -8998,7 +9091,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>59</v>
       </c>
@@ -9049,7 +9142,7 @@
         <v>3.6458333333332926E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>59</v>
       </c>
@@ -9103,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>59</v>
       </c>
@@ -9154,7 +9247,7 @@
         <v>3.6342592592592537E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>59</v>
       </c>
@@ -9205,7 +9298,7 @@
         <v>3.5648148148147984E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>59</v>
       </c>
@@ -9256,7 +9349,7 @@
         <v>3.6342592592592537E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>58</v>
       </c>
@@ -9310,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>58</v>
       </c>
@@ -9361,7 +9454,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>58</v>
       </c>
@@ -9412,7 +9505,7 @@
         <v>3.5300925925925708E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>58</v>
       </c>
@@ -9463,7 +9556,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>58</v>
       </c>
@@ -9517,7 +9610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>58</v>
       </c>
@@ -9568,7 +9661,7 @@
         <v>3.6342592592591982E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>58</v>
       </c>
@@ -9619,7 +9712,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>58</v>
       </c>
@@ -9670,7 +9763,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>58</v>
       </c>
@@ -9721,7 +9814,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>58</v>
       </c>
@@ -9772,7 +9865,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>58</v>
       </c>
@@ -9823,7 +9916,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>58</v>
       </c>
@@ -9874,7 +9967,7 @@
         <v>3.611111111111176E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>58</v>
       </c>
@@ -9925,7 +10018,7 @@
         <v>3.7152777777776924E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>57</v>
       </c>
@@ -9976,7 +10069,7 @@
         <v>3.4953703703703987E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>58</v>
       </c>
@@ -10027,7 +10120,7 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>60</v>
       </c>
@@ -10078,7 +10171,7 @@
         <v>3.5648148148147429E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>58</v>
       </c>
@@ -10129,7 +10222,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>58</v>
       </c>
@@ -10180,7 +10273,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>59</v>
       </c>
@@ -10234,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>58</v>
       </c>
@@ -10285,7 +10378,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>58</v>
       </c>
@@ -10336,7 +10429,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>58</v>
       </c>
@@ -10387,7 +10480,7 @@
         <v>3.6805555555555758E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>58</v>
       </c>
@@ -10438,7 +10531,7 @@
         <v>7.1296296296295969E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>59</v>
       </c>
@@ -10489,7 +10582,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>59</v>
       </c>
@@ -10540,7 +10633,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>59</v>
       </c>
@@ -10591,7 +10684,7 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>59</v>
       </c>
@@ -10645,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>59</v>
       </c>
@@ -10696,7 +10789,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>59</v>
       </c>
@@ -10747,7 +10840,7 @@
         <v>3.611111111111176E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>59</v>
       </c>
@@ -10798,7 +10891,7 @@
         <v>3.6689814814814814E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>59</v>
       </c>
@@ -10852,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>59</v>
       </c>
@@ -10903,7 +10996,7 @@
         <v>3.6805555555555758E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>59</v>
       </c>
@@ -10954,7 +11047,7 @@
         <v>3.5185185185185319E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>59</v>
       </c>
@@ -11005,7 +11098,7 @@
         <v>3.6805555555555203E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>59</v>
       </c>
@@ -11059,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>59</v>
       </c>
@@ -11110,7 +11203,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>59</v>
       </c>
@@ -11161,7 +11254,7 @@
         <v>3.6342592592591982E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>59</v>
       </c>
@@ -11212,7 +11305,7 @@
         <v>3.657407407407498E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>59</v>
       </c>
@@ -11266,7 +11359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>59</v>
       </c>
@@ -11317,7 +11410,7 @@
         <v>3.5185185185184764E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>60</v>
       </c>
@@ -11368,7 +11461,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>60</v>
       </c>
@@ -11422,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>61</v>
       </c>
@@ -11473,7 +11566,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>61</v>
       </c>
@@ -11524,7 +11617,7 @@
         <v>3.6111111111110095E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>62</v>
       </c>
@@ -11575,7 +11668,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>62</v>
       </c>
@@ -11629,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>64</v>
       </c>
@@ -11683,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>64</v>
       </c>
@@ -11734,7 +11827,7 @@
         <v>3.6458333333332371E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>63</v>
       </c>
@@ -11788,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>63</v>
       </c>
@@ -11839,7 +11932,7 @@
         <v>3.6226851851852704E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>63</v>
       </c>
@@ -11893,7 +11986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>63</v>
       </c>
@@ -11947,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>63</v>
       </c>
@@ -11998,7 +12091,7 @@
         <v>3.5648148148147429E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>62</v>
       </c>
@@ -12049,7 +12142,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>62</v>
       </c>
@@ -12100,7 +12193,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>62</v>
       </c>
@@ -12154,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>62</v>
       </c>
@@ -12205,7 +12298,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>62</v>
       </c>
@@ -12256,7 +12349,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>62</v>
       </c>
@@ -12307,7 +12400,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>61</v>
       </c>
@@ -12361,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>61</v>
       </c>
@@ -12412,7 +12505,7 @@
         <v>3.6805555555555758E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>61</v>
       </c>
@@ -12463,7 +12556,7 @@
         <v>3.5416666666666652E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>61</v>
       </c>
@@ -12514,7 +12607,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>61</v>
       </c>
@@ -12568,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>61</v>
       </c>
@@ -12619,7 +12712,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>61</v>
       </c>
@@ -12670,7 +12763,7 @@
         <v>3.6342592592591982E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>61</v>
       </c>
@@ -12721,7 +12814,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>61</v>
       </c>
@@ -12775,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>61</v>
       </c>
@@ -12826,7 +12919,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>61</v>
       </c>
@@ -12877,7 +12970,7 @@
         <v>3.5532407407407041E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>61</v>
       </c>
@@ -12928,7 +13021,7 @@
         <v>3.6921296296296147E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>61</v>
       </c>
@@ -12982,7 +13075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>61</v>
       </c>
@@ -13033,7 +13126,7 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>61</v>
       </c>
@@ -13084,7 +13177,7 @@
         <v>3.5069444444445486E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>60</v>
       </c>
@@ -13135,7 +13228,7 @@
         <v>3.6689814814813149E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>60</v>
       </c>
@@ -13189,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>60</v>
       </c>
@@ -13240,7 +13333,7 @@
         <v>3.6458333333334592E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>60</v>
       </c>
@@ -13291,7 +13384,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>60</v>
       </c>
@@ -13342,7 +13435,7 @@
         <v>3.6226851851850483E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>60</v>
       </c>
@@ -13396,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>60</v>
       </c>
@@ -13447,7 +13540,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>60</v>
       </c>
@@ -13498,7 +13591,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>60</v>
       </c>
@@ -13549,7 +13642,7 @@
         <v>3.6921296296296147E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>60</v>
       </c>
@@ -13603,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>60</v>
       </c>
@@ -13654,7 +13747,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>60</v>
       </c>
@@ -13705,7 +13798,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>60</v>
       </c>
@@ -13756,7 +13849,7 @@
         <v>3.6921296296295036E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>60</v>
       </c>
@@ -13810,7 +13903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>60</v>
       </c>
@@ -13861,7 +13954,7 @@
         <v>3.5879629629628207E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>60</v>
       </c>
@@ -13912,7 +14005,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>60</v>
       </c>
@@ -13963,7 +14056,7 @@
         <v>3.7037037037036535E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>60</v>
       </c>
@@ -14014,7 +14107,7 @@
         <v>7.1527777777777857E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>60</v>
       </c>
@@ -14065,7 +14158,7 @@
         <v>3.6111111111112315E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>60</v>
       </c>
@@ -14116,7 +14209,7 @@
         <v>3.5995370370369706E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>60</v>
       </c>
@@ -14167,7 +14260,7 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>60</v>
       </c>
@@ -14221,7 +14314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>60</v>
       </c>
@@ -14272,7 +14365,7 @@
         <v>3.5185185185184764E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>60</v>
       </c>
@@ -14323,7 +14416,7 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>60</v>
       </c>
@@ -14377,7 +14470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>60</v>
       </c>
@@ -14428,7 +14521,7 @@
         <v>3.5995370370369706E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>60</v>
       </c>
@@ -14479,7 +14572,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>60</v>
       </c>
@@ -14530,7 +14623,7 @@
         <v>3.6574074074076091E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>60</v>
       </c>
@@ -14581,7 +14674,7 @@
         <v>7.2106481481479801E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>60</v>
       </c>
@@ -14632,7 +14725,7 @@
         <v>3.5995370370371926E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>60</v>
       </c>
@@ -14683,7 +14776,7 @@
         <v>3.6111111111110095E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>60</v>
       </c>
@@ -14734,7 +14827,7 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>60</v>
       </c>
@@ -14785,7 +14878,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>60</v>
       </c>
@@ -14836,7 +14929,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>60</v>
       </c>
@@ -14887,7 +14980,7 @@
         <v>3.6689814814814259E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>60</v>
       </c>
@@ -14938,7 +15031,7 @@
         <v>3.5069444444444375E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>60</v>
       </c>
@@ -14989,7 +15082,7 @@
         <v>3.7037037037036535E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>60</v>
       </c>
@@ -15043,7 +15136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>60</v>
       </c>
@@ -15094,7 +15187,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>60</v>
       </c>
@@ -15145,7 +15238,7 @@
         <v>3.6921296296296147E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>60</v>
       </c>
@@ -15199,7 +15292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>60</v>
       </c>
@@ -15250,7 +15343,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>60</v>
       </c>
@@ -15301,7 +15394,7 @@
         <v>7.22222222222213E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>60</v>
       </c>
@@ -15352,7 +15445,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>60</v>
       </c>
@@ -15403,7 +15496,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>60</v>
       </c>
@@ -15454,7 +15547,7 @@
         <v>3.5416666666667762E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>60</v>
       </c>
@@ -15508,7 +15601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>60</v>
       </c>
@@ -15559,7 +15652,7 @@
         <v>3.5069444444443265E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>60</v>
       </c>
@@ -15610,7 +15703,7 @@
         <v>3.6458333333334592E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>60</v>
       </c>
@@ -15664,7 +15757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>60</v>
       </c>
@@ -15715,7 +15808,7 @@
         <v>3.6805555555556868E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>60</v>
       </c>
@@ -15769,7 +15862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>60</v>
       </c>
@@ -15820,7 +15913,7 @@
         <v>3.5995370370369706E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>60</v>
       </c>
@@ -15871,7 +15964,7 @@
         <v>3.5995370370371926E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>60</v>
       </c>
@@ -15922,7 +16015,7 @@
         <v>3.6458333333332371E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>60</v>
       </c>
@@ -15976,7 +16069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>60</v>
       </c>
@@ -16027,7 +16120,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>60</v>
       </c>
@@ -16078,7 +16171,7 @@
         <v>3.6689814814814259E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>60</v>
       </c>
@@ -16129,7 +16222,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>60</v>
       </c>
@@ -16180,7 +16273,7 @@
         <v>3.5532407407408151E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>60</v>
       </c>
@@ -16231,7 +16324,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>60</v>
       </c>
@@ -16282,7 +16375,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>60</v>
       </c>
@@ -16333,7 +16426,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>60</v>
       </c>
@@ -16387,7 +16480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>60</v>
       </c>
@@ -16441,7 +16534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>60</v>
       </c>
@@ -16492,7 +16585,7 @@
         <v>3.6458333333334592E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>60</v>
       </c>
@@ -16546,7 +16639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>60</v>
       </c>
@@ -16597,7 +16690,7 @@
         <v>3.5995370370369706E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>59</v>
       </c>
@@ -16648,7 +16741,7 @@
         <v>3.6226851851852704E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>59</v>
       </c>
@@ -16699,7 +16792,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>59</v>
       </c>
@@ -16753,7 +16846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>59</v>
       </c>
@@ -16804,7 +16897,7 @@
         <v>3.5995370370370374E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>59</v>
       </c>
@@ -16855,7 +16948,7 @@
         <v>3.5879629629629629E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>59</v>
       </c>
@@ -16906,7 +16999,7 @@
         <v>3.6574074074074096E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>59</v>
       </c>
@@ -16960,7 +17053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>59</v>
       </c>
@@ -17011,7 +17104,7 @@
         <v>3.6226851851851871E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>59</v>
       </c>
@@ -17062,7 +17155,7 @@
         <v>3.5879629629629595E-3</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>59</v>
       </c>
@@ -17113,7 +17206,7 @@
         <v>3.6805555555555619E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>59</v>
       </c>
@@ -17167,7 +17260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>59</v>
       </c>
@@ -17218,7 +17311,7 @@
         <v>3.6226851851851871E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>59</v>
       </c>
@@ -17272,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>59</v>
       </c>
@@ -17326,7 +17419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>59</v>
       </c>
@@ -17377,7 +17470,7 @@
         <v>3.6342592592592468E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>59</v>
       </c>
@@ -17428,7 +17521,7 @@
         <v>3.5995370370370539E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>59</v>
       </c>
@@ -17479,7 +17572,7 @@
         <v>3.6342592592592537E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>59</v>
       </c>
@@ -17530,7 +17623,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>59</v>
       </c>
@@ -17581,7 +17674,7 @@
         <v>3.6226851851851732E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>59</v>
       </c>
@@ -17632,7 +17725,7 @@
         <v>3.59953703703704E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>59</v>
       </c>
@@ -17683,7 +17776,7 @@
         <v>3.6342592592592537E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>59</v>
       </c>
@@ -17734,7 +17827,7 @@
         <v>3.6458333333333343E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>59</v>
       </c>
@@ -17788,7 +17881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>59</v>
       </c>
@@ -17839,7 +17932,7 @@
         <v>3.6805555555555758E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>59</v>
       </c>
@@ -17890,7 +17983,7 @@
         <v>3.495370370370357E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>59</v>
       </c>
@@ -17941,7 +18034,7 @@
         <v>3.6574074074074148E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>59</v>
       </c>
@@ -17995,7 +18088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>59</v>
       </c>
@@ -18046,7 +18139,7 @@
         <v>3.5879629629629456E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>59</v>
       </c>
@@ -18097,7 +18190,7 @@
         <v>3.6689814814814814E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>59</v>
       </c>
@@ -18151,7 +18244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>59</v>
       </c>
@@ -18202,7 +18295,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>59</v>
       </c>
@@ -18256,7 +18349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>59</v>
       </c>
@@ -18310,7 +18403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>59</v>
       </c>
@@ -18364,7 +18457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>59</v>
       </c>
@@ -18418,7 +18511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>59</v>
       </c>
@@ -18469,7 +18562,7 @@
         <v>3.5879629629629595E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>59</v>
       </c>
@@ -18520,7 +18613,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>59</v>
       </c>
@@ -18571,7 +18664,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>59</v>
       </c>
@@ -18622,7 +18715,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>59</v>
       </c>
@@ -18673,7 +18766,7 @@
         <v>3.6226851851852149E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>59</v>
       </c>
@@ -18724,7 +18817,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>59</v>
       </c>
@@ -18775,7 +18868,7 @@
         <v>3.6342592592592537E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>59</v>
       </c>
@@ -18826,7 +18919,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>59</v>
       </c>
@@ -18877,7 +18970,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>59</v>
       </c>
@@ -18928,7 +19021,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>59</v>
       </c>
@@ -18982,7 +19075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>59</v>
       </c>
@@ -19033,7 +19126,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>59</v>
       </c>
@@ -19084,7 +19177,7 @@
         <v>3.6111111111110927E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>58</v>
       </c>
@@ -19135,7 +19228,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>58</v>
       </c>
@@ -19189,7 +19282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>58</v>
       </c>
@@ -19240,7 +19333,7 @@
         <v>3.6226851851851871E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>58</v>
       </c>
@@ -19291,7 +19384,7 @@
         <v>3.6226851851852149E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>58</v>
       </c>
@@ -19345,7 +19438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>58</v>
       </c>
@@ -19396,7 +19489,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>58</v>
       </c>
@@ -19447,7 +19540,7 @@
         <v>3.5879629629629872E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>58</v>
       </c>
@@ -19498,7 +19591,7 @@
         <v>3.6458333333333204E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>58</v>
       </c>
@@ -19549,7 +19642,7 @@
         <v>3.5648148148147984E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>58</v>
       </c>
@@ -19600,7 +19693,7 @@
         <v>3.6226851851852149E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>58</v>
       </c>
@@ -19651,7 +19744,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>58</v>
       </c>
@@ -19702,7 +19795,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>58</v>
       </c>
@@ -19753,7 +19846,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>58</v>
       </c>
@@ -19804,7 +19897,7 @@
         <v>3.5532407407407596E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>58</v>
       </c>
@@ -19855,7 +19948,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>58</v>
       </c>
@@ -19906,7 +19999,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>58</v>
       </c>
@@ -19957,7 +20050,7 @@
         <v>3.5532407407407041E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>58</v>
       </c>
@@ -20008,7 +20101,7 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>58</v>
       </c>
@@ -20062,7 +20155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>58</v>
       </c>
@@ -20113,7 +20206,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>58</v>
       </c>
@@ -20164,7 +20257,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>58</v>
       </c>
@@ -20218,7 +20311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>58</v>
       </c>
@@ -20269,7 +20362,7 @@
         <v>3.6574074074074425E-3</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>58</v>
       </c>
@@ -20320,7 +20413,7 @@
         <v>3.5300925925925708E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>58</v>
       </c>
@@ -20371,7 +20464,7 @@
         <v>3.6342592592592537E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>58</v>
       </c>
@@ -20425,7 +20518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>58</v>
       </c>
@@ -20476,7 +20569,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>58</v>
       </c>
@@ -20527,7 +20620,7 @@
         <v>3.5300925925926263E-3</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>58</v>
       </c>
@@ -20578,7 +20671,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>58</v>
       </c>
@@ -20632,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>58</v>
       </c>
@@ -20686,7 +20779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>58</v>
       </c>
@@ -20740,7 +20833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>58</v>
       </c>
@@ -20791,7 +20884,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>58</v>
       </c>
@@ -20842,7 +20935,7 @@
         <v>3.5995370370369706E-3</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>58</v>
       </c>
@@ -20893,7 +20986,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>57</v>
       </c>
@@ -20947,7 +21040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>58</v>
       </c>
@@ -20998,7 +21091,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>59</v>
       </c>
@@ -21049,7 +21142,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>58</v>
       </c>
@@ -21100,7 +21193,7 @@
         <v>3.6226851851852149E-3</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>58</v>
       </c>
@@ -21154,7 +21247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>58</v>
       </c>
@@ -21208,7 +21301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>57</v>
       </c>
@@ -21262,7 +21355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>57</v>
       </c>
@@ -21313,7 +21406,7 @@
         <v>3.5532407407407041E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>57</v>
       </c>
@@ -21364,7 +21457,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>57</v>
       </c>
@@ -21415,7 +21508,7 @@
         <v>3.6805555555555758E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>57</v>
       </c>
@@ -21469,7 +21562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>57</v>
       </c>
@@ -21520,7 +21613,7 @@
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>57</v>
       </c>
@@ -21571,7 +21664,7 @@
         <v>3.5995370370370261E-3</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>57</v>
       </c>
@@ -21622,7 +21715,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>57</v>
       </c>
@@ -21673,7 +21766,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>57</v>
       </c>
@@ -21724,7 +21817,7 @@
         <v>3.611111111111065E-3</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>56</v>
       </c>
@@ -21775,7 +21868,7 @@
         <v>3.6805555555555203E-3</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>56</v>
       </c>
@@ -21826,7 +21919,7 @@
         <v>3.5300925925926263E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>56</v>
       </c>
@@ -21877,7 +21970,7 @@
         <v>3.7037037037036535E-3</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>55</v>
       </c>
@@ -21931,7 +22024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>55</v>
       </c>
@@ -21982,7 +22075,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>55</v>
       </c>
@@ -22033,7 +22126,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>55</v>
       </c>
@@ -22084,7 +22177,7 @@
         <v>3.6458333333332926E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>54</v>
       </c>
@@ -22138,7 +22231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>54</v>
       </c>
@@ -22189,7 +22282,7 @@
         <v>3.6226851851852149E-3</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>54</v>
       </c>
@@ -22240,7 +22333,7 @@
         <v>3.5532407407407596E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>54</v>
       </c>
@@ -22291,7 +22384,7 @@
         <v>3.6111111111110095E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>55</v>
       </c>
@@ -22345,7 +22438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>54</v>
       </c>
@@ -22396,7 +22489,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>54</v>
       </c>
@@ -22447,7 +22540,7 @@
         <v>3.6111111111111205E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>54</v>
       </c>
@@ -22498,7 +22591,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>54</v>
       </c>
@@ -22549,7 +22642,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>54</v>
       </c>
@@ -22600,7 +22693,7 @@
         <v>3.6458333333332371E-3</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>54</v>
       </c>
@@ -22651,7 +22744,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>54</v>
       </c>
@@ -22702,7 +22795,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>54</v>
       </c>
@@ -22753,7 +22846,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>55</v>
       </c>
@@ -22807,7 +22900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>55</v>
       </c>
@@ -22858,7 +22951,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>55</v>
       </c>
@@ -22909,7 +23002,7 @@
         <v>3.564814814814854E-3</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>55</v>
       </c>
@@ -22960,7 +23053,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>55</v>
       </c>
@@ -23014,7 +23107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>55</v>
       </c>
@@ -23065,7 +23158,7 @@
         <v>3.5879629629630427E-3</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>55</v>
       </c>
@@ -23116,7 +23209,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>55</v>
       </c>
@@ -23167,7 +23260,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>55</v>
       </c>
@@ -23222,7 +23315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>55</v>
       </c>
@@ -23273,7 +23366,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>55</v>
       </c>
@@ -23324,7 +23417,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>56</v>
       </c>
@@ -23375,7 +23468,7 @@
         <v>3.6921296296295036E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>56</v>
       </c>
@@ -23429,7 +23522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>56</v>
       </c>
@@ -23480,7 +23573,7 @@
         <v>3.5995370370370816E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>56</v>
       </c>
@@ -23531,7 +23624,7 @@
         <v>3.6111111111110095E-3</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>56</v>
       </c>
@@ -23582,7 +23675,7 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>56</v>
       </c>
@@ -23636,7 +23729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>56</v>
       </c>
@@ -23687,7 +23780,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>55</v>
       </c>
@@ -23738,7 +23831,7 @@
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>55</v>
       </c>
@@ -23792,7 +23885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>55</v>
       </c>
@@ -23843,7 +23936,7 @@
         <v>3.657407407407387E-3</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>54</v>
       </c>
@@ -23894,7 +23987,7 @@
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>54</v>
       </c>
@@ -23945,7 +24038,7 @@
         <v>3.5763888888888928E-3</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>54</v>
       </c>
@@ -23996,7 +24089,7 @@
         <v>3.6458333333333481E-3</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>55</v>
       </c>
@@ -24050,7 +24143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>55</v>
       </c>
@@ -24101,10 +24194,10 @@
         <v>3.6689814814815369E-3</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P456" s="1"/>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
         <v>20</v>
       </c>
@@ -24121,8 +24214,15 @@
         <f>SUM(Q2:Q455)</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="462" spans="1:17">
+      <c r="Q461" t="s">
+        <v>34</v>
+      </c>
+      <c r="R461">
+        <f>(F461-P461)/F461</f>
+        <v>0.76271186440677963</v>
+      </c>
+    </row>
+    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>21</v>
       </c>
@@ -24140,8 +24240,15 @@
         <f>F461-F462</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="463" spans="1:17">
+      <c r="Q462" t="s">
+        <v>34</v>
+      </c>
+      <c r="R462">
+        <f>(F461-P462)/F461</f>
+        <v>0.76949152542372878</v>
+      </c>
+    </row>
+    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
         <v>23</v>
       </c>
@@ -24150,6 +24257,18 @@
       </c>
       <c r="H463" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N464" s="2">
+        <f>300*R462</f>
+        <v>230.84745762711864</v>
+      </c>
+    </row>
+    <row r="465" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N465" s="2">
+        <f>231/300</f>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -24159,34 +24278,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q478"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="R468" sqref="R468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24236,7 +24355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>54</v>
       </c>
@@ -24286,7 +24405,7 @@
         <v>43769.709398148145</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>54</v>
       </c>
@@ -24341,7 +24460,7 @@
         <v>43769.713043981479</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>54</v>
       </c>
@@ -24396,7 +24515,7 @@
         <v>43769.71665509259</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>54</v>
       </c>
@@ -24451,7 +24570,7 @@
         <v>43769.723958333328</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>54</v>
       </c>
@@ -24506,7 +24625,7 @@
         <v>43769.72751157407</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>54</v>
       </c>
@@ -24561,7 +24680,7 @@
         <v>43769.731168981474</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>54</v>
       </c>
@@ -24616,7 +24735,7 @@
         <v>43769.734768518509</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>54</v>
       </c>
@@ -24671,7 +24790,7 @@
         <v>43769.738402777766</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>55</v>
       </c>
@@ -24726,7 +24845,7 @@
         <v>43769.745648148135</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>55</v>
       </c>
@@ -24781,7 +24900,7 @@
         <v>43769.749259259246</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>55</v>
       </c>
@@ -24836,7 +24955,7 @@
         <v>43769.752881944434</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -24891,7 +25010,7 @@
         <v>43769.760173611103</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>55</v>
       </c>
@@ -24946,7 +25065,7 @@
         <v>43769.763796296291</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>55</v>
       </c>
@@ -25001,7 +25120,7 @@
         <v>43769.771064814806</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>56</v>
       </c>
@@ -25056,7 +25175,7 @@
         <v>43769.778275462952</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>56</v>
       </c>
@@ -25111,7 +25230,7 @@
         <v>43769.781863425917</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>56</v>
       </c>
@@ -25166,7 +25285,7 @@
         <v>43769.785497685174</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>56</v>
       </c>
@@ -25221,7 +25340,7 @@
         <v>43769.789155092578</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>56</v>
       </c>
@@ -25276,7 +25395,7 @@
         <v>43769.792731481466</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>56</v>
       </c>
@@ -25331,7 +25450,7 @@
         <v>43769.7963773148</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>56</v>
       </c>
@@ -25386,7 +25505,7 @@
         <v>43769.803634259246</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>56</v>
       </c>
@@ -25441,7 +25560,7 @@
         <v>43769.807256944434</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>56</v>
       </c>
@@ -25496,7 +25615,7 @@
         <v>43769.810856481468</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>56</v>
       </c>
@@ -25551,7 +25670,7 @@
         <v>43769.821736111095</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>56</v>
       </c>
@@ -25606,7 +25725,7 @@
         <v>43769.82899305554</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>56</v>
       </c>
@@ -25661,7 +25780,7 @@
         <v>43769.832604166651</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>56</v>
       </c>
@@ -25716,7 +25835,7 @@
         <v>43769.836226851839</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>56</v>
       </c>
@@ -25771,7 +25890,7 @@
         <v>43769.839837962951</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>56</v>
       </c>
@@ -25826,7 +25945,7 @@
         <v>43769.843483796285</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>56</v>
       </c>
@@ -25881,7 +26000,7 @@
         <v>43769.847118055543</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>57</v>
       </c>
@@ -25936,7 +26055,7 @@
         <v>43769.854351851842</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>57</v>
       </c>
@@ -25991,7 +26110,7 @@
         <v>43769.861585648141</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>57</v>
       </c>
@@ -26046,7 +26165,7 @@
         <v>43769.865219907399</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>57</v>
       </c>
@@ -26101,7 +26220,7 @@
         <v>43769.868842592587</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>57</v>
       </c>
@@ -26156,7 +26275,7 @@
         <v>43769.872476851844</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>57</v>
       </c>
@@ -26211,7 +26330,7 @@
         <v>43769.876076388879</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>57</v>
       </c>
@@ -26266,7 +26385,7 @@
         <v>43769.879733796282</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>57</v>
       </c>
@@ -26321,7 +26440,7 @@
         <v>43769.886990740728</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>57</v>
       </c>
@@ -26376,7 +26495,7 @@
         <v>43769.890624999985</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>57</v>
       </c>
@@ -26431,7 +26550,7 @@
         <v>43769.894201388874</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>57</v>
       </c>
@@ -26486,7 +26605,7 @@
         <v>43769.897824074062</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>57</v>
       </c>
@@ -26541,7 +26660,7 @@
         <v>43769.90144675925</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>57</v>
       </c>
@@ -26596,7 +26715,7 @@
         <v>43769.905081018507</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>56</v>
       </c>
@@ -26651,7 +26770,7 @@
         <v>43769.912337962953</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>56</v>
       </c>
@@ -26706,7 +26825,7 @@
         <v>43769.915949074064</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -26761,7 +26880,7 @@
         <v>43769.919583333321</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -26816,7 +26935,7 @@
         <v>43769.923194444433</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>57</v>
       </c>
@@ -26871,7 +26990,7 @@
         <v>43769.926817129621</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>57</v>
       </c>
@@ -26926,7 +27045,7 @@
         <v>43769.930439814809</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>57</v>
       </c>
@@ -26981,7 +27100,7 @@
         <v>43769.93405092592</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>57</v>
       </c>
@@ -27036,7 +27155,7 @@
         <v>43769.937708333324</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>57</v>
       </c>
@@ -27091,7 +27210,7 @@
         <v>43769.94491898147</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>57</v>
       </c>
@@ -27146,7 +27265,7 @@
         <v>43769.948553240727</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>56</v>
       </c>
@@ -27201,7 +27320,7 @@
         <v>43769.952187499985</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -27256,7 +27375,7 @@
         <v>43769.955810185173</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -27311,7 +27430,7 @@
         <v>43769.959421296284</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -27366,7 +27485,7 @@
         <v>43769.963055555541</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -27421,7 +27540,7 @@
         <v>43769.970312499987</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -27476,7 +27595,7 @@
         <v>43769.977546296286</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -27531,7 +27650,7 @@
         <v>43769.984803240732</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -27586,7 +27705,7 @@
         <v>43769.988414351843</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>57</v>
       </c>
@@ -27641,7 +27760,7 @@
         <v>43769.992037037031</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>57</v>
       </c>
@@ -27696,7 +27815,7 @@
         <v>43769.995671296288</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>57</v>
       </c>
@@ -27751,7 +27870,7 @@
         <v>43769.999293981477</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>57</v>
       </c>
@@ -27805,7 +27924,7 @@
         <v>43770.002916666665</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>57</v>
       </c>
@@ -27860,7 +27979,7 @@
         <v>43770.006539351853</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>57</v>
       </c>
@@ -27915,7 +28034,7 @@
         <v>43770.01017361111</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>57</v>
       </c>
@@ -27970,7 +28089,7 @@
         <v>43770.013784722221</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>57</v>
       </c>
@@ -28025,7 +28144,7 @@
         <v>43770.017407407409</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>57</v>
       </c>
@@ -28080,7 +28199,7 @@
         <v>43770.021053240744</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>57</v>
       </c>
@@ -28135,7 +28254,7 @@
         <v>43770.024652777778</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>57</v>
       </c>
@@ -28190,7 +28309,7 @@
         <v>43770.028287037036</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>57</v>
       </c>
@@ -28245,7 +28364,7 @@
         <v>43770.031909722224</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>57</v>
       </c>
@@ -28300,7 +28419,7 @@
         <v>43770.035520833335</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>57</v>
       </c>
@@ -28355,7 +28474,7 @@
         <v>43770.039166666669</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>57</v>
       </c>
@@ -28410,7 +28529,7 @@
         <v>43770.04277777778</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>57</v>
       </c>
@@ -28465,7 +28584,7 @@
         <v>43770.046412037038</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>57</v>
       </c>
@@ -28520,7 +28639,7 @@
         <v>43770.057268518518</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>57</v>
       </c>
@@ -28575,7 +28694,7 @@
         <v>43770.060902777775</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>57</v>
       </c>
@@ -28630,7 +28749,7 @@
         <v>43770.064513888887</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>57</v>
       </c>
@@ -28685,7 +28804,7 @@
         <v>43770.068148148144</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>57</v>
       </c>
@@ -28740,7 +28859,7 @@
         <v>43770.071782407402</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>57</v>
       </c>
@@ -28795,7 +28914,7 @@
         <v>43770.075393518513</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>57</v>
       </c>
@@ -28850,7 +28969,7 @@
         <v>43770.079027777771</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>57</v>
       </c>
@@ -28905,7 +29024,7 @@
         <v>43770.08626157407</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>57</v>
       </c>
@@ -28960,7 +29079,7 @@
         <v>43770.089884259258</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>57</v>
       </c>
@@ -29015,7 +29134,7 @@
         <v>43770.093518518515</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>57</v>
       </c>
@@ -29070,7 +29189,7 @@
         <v>43770.097141203703</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>57</v>
       </c>
@@ -29125,7 +29244,7 @@
         <v>43770.100752314815</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>57</v>
       </c>
@@ -29180,7 +29299,7 @@
         <v>43770.104398148149</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>57</v>
       </c>
@@ -29235,7 +29354,7 @@
         <v>43770.107997685183</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>57</v>
       </c>
@@ -29290,7 +29409,7 @@
         <v>43770.111631944441</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>57</v>
       </c>
@@ -29345,7 +29464,7 @@
         <v>43770.115254629629</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>57</v>
       </c>
@@ -29400,7 +29519,7 @@
         <v>43770.118888888886</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>57</v>
       </c>
@@ -29455,7 +29574,7 @@
         <v>43770.122511574074</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>57</v>
       </c>
@@ -29510,7 +29629,7 @@
         <v>43770.126134259262</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>57</v>
       </c>
@@ -29565,7 +29684,7 @@
         <v>43770.129745370374</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>57</v>
       </c>
@@ -29620,7 +29739,7 @@
         <v>43770.133368055562</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>57</v>
       </c>
@@ -29675,7 +29794,7 @@
         <v>43770.13699074075</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>57</v>
       </c>
@@ -29730,7 +29849,7 @@
         <v>43770.140625000007</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>57</v>
       </c>
@@ -29785,7 +29904,7 @@
         <v>43770.144259259265</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>57</v>
       </c>
@@ -29840,7 +29959,7 @@
         <v>43770.147870370376</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>57</v>
       </c>
@@ -29895,7 +30014,7 @@
         <v>43770.151493055564</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>57</v>
       </c>
@@ -29950,7 +30069,7 @@
         <v>43770.155115740752</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>57</v>
       </c>
@@ -30005,7 +30124,7 @@
         <v>43770.15873842594</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>57</v>
       </c>
@@ -30060,7 +30179,7 @@
         <v>43770.162372685198</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>57</v>
       </c>
@@ -30115,7 +30234,7 @@
         <v>43770.169618055566</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>57</v>
       </c>
@@ -30170,7 +30289,7 @@
         <v>43770.173229166678</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>57</v>
       </c>
@@ -30225,7 +30344,7 @@
         <v>43770.176875000012</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>57</v>
       </c>
@@ -30280,7 +30399,7 @@
         <v>43770.180486111123</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>57</v>
       </c>
@@ -30335,7 +30454,7 @@
         <v>43770.184120370381</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>57</v>
       </c>
@@ -30390,7 +30509,7 @@
         <v>43770.187766203715</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>57</v>
       </c>
@@ -30445,7 +30564,7 @@
         <v>43770.19135416668</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>57</v>
       </c>
@@ -30500,7 +30619,7 @@
         <v>43770.194976851868</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>57</v>
       </c>
@@ -30555,7 +30674,7 @@
         <v>43770.202245370383</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>57</v>
       </c>
@@ -30610,7 +30729,7 @@
         <v>43770.209479166682</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>57</v>
       </c>
@@ -30665,7 +30784,7 @@
         <v>43770.21310185187</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>57</v>
       </c>
@@ -30720,7 +30839,7 @@
         <v>43770.216724537058</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>57</v>
       </c>
@@ -30775,7 +30894,7 @@
         <v>43770.220347222246</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>57</v>
       </c>
@@ -30830,7 +30949,7 @@
         <v>43770.223969907434</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>57</v>
       </c>
@@ -30885,7 +31004,7 @@
         <v>43770.227627314838</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>57</v>
       </c>
@@ -30940,7 +31059,7 @@
         <v>43770.231226851873</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>57</v>
       </c>
@@ -30995,7 +31114,7 @@
         <v>43770.234849537061</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>57</v>
       </c>
@@ -31050,7 +31169,7 @@
         <v>43770.238495370395</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>57</v>
       </c>
@@ -31105,7 +31224,7 @@
         <v>43770.242094907429</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>57</v>
       </c>
@@ -31160,7 +31279,7 @@
         <v>43770.245729166687</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>57</v>
       </c>
@@ -31215,7 +31334,7 @@
         <v>43770.252974537056</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>57</v>
       </c>
@@ -31270,7 +31389,7 @@
         <v>43770.256585648167</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>57</v>
       </c>
@@ -31325,7 +31444,7 @@
         <v>43770.263842592612</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>57</v>
       </c>
@@ -31380,7 +31499,7 @@
         <v>43770.267465277801</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>57</v>
       </c>
@@ -31435,7 +31554,7 @@
         <v>43770.271122685204</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>57</v>
       </c>
@@ -31490,7 +31609,7 @@
         <v>43770.274710648169</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>57</v>
       </c>
@@ -31545,7 +31664,7 @@
         <v>43770.278333333357</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>57</v>
       </c>
@@ -31600,7 +31719,7 @@
         <v>43770.289212962984</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>57</v>
       </c>
@@ -31655,7 +31774,7 @@
         <v>43770.292835648172</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>57</v>
       </c>
@@ -31710,7 +31829,7 @@
         <v>43770.29645833336</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>57</v>
       </c>
@@ -31765,7 +31884,7 @@
         <v>43770.300092592617</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>57</v>
       </c>
@@ -31820,7 +31939,7 @@
         <v>43770.303703703728</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>57</v>
       </c>
@@ -31875,7 +31994,7 @@
         <v>43770.307337962986</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>57</v>
       </c>
@@ -31930,7 +32049,7 @@
         <v>43770.31098379632</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>57</v>
       </c>
@@ -31985,7 +32104,7 @@
         <v>43770.318229166689</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>57</v>
       </c>
@@ -32040,7 +32159,7 @@
         <v>43770.325486111135</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>56</v>
       </c>
@@ -32095,7 +32214,7 @@
         <v>43770.329074074099</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>56</v>
       </c>
@@ -32150,7 +32269,7 @@
         <v>43770.332696759288</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>56</v>
       </c>
@@ -32205,7 +32324,7 @@
         <v>43770.336319444476</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>56</v>
       </c>
@@ -32260,7 +32379,7 @@
         <v>43770.343576388921</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>56</v>
       </c>
@@ -32315,7 +32434,7 @@
         <v>43770.347280092625</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>56</v>
       </c>
@@ -32370,7 +32489,7 @@
         <v>43770.350833333367</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>56</v>
       </c>
@@ -32425,7 +32544,7 @@
         <v>43770.358090277812</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>55</v>
       </c>
@@ -32480,7 +32599,7 @@
         <v>43770.368958333369</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>56</v>
       </c>
@@ -32535,7 +32654,7 @@
         <v>43770.372557870403</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>55</v>
       </c>
@@ -32590,7 +32709,7 @@
         <v>43770.376215277807</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>55</v>
       </c>
@@ -32645,7 +32764,7 @@
         <v>43770.379826388918</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>55</v>
       </c>
@@ -32700,7 +32819,7 @@
         <v>43770.383449074106</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>55</v>
       </c>
@@ -32755,7 +32874,7 @@
         <v>43770.390682870406</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>55</v>
       </c>
@@ -32810,7 +32929,7 @@
         <v>43770.394351851886</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>55</v>
       </c>
@@ -32865,7 +32984,7 @@
         <v>43770.401574074109</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>55</v>
       </c>
@@ -32920,7 +33039,7 @@
         <v>43770.40518518522</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>55</v>
       </c>
@@ -32975,7 +33094,7 @@
         <v>43770.408831018554</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>55</v>
       </c>
@@ -33030,7 +33149,7 @@
         <v>43770.412488425958</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>55</v>
       </c>
@@ -33085,7 +33204,7 @@
         <v>43770.416076388923</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>55</v>
       </c>
@@ -33140,7 +33259,7 @@
         <v>43770.423298611146</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>56</v>
       </c>
@@ -33195,7 +33314,7 @@
         <v>43770.434201388925</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>56</v>
       </c>
@@ -33250,7 +33369,7 @@
         <v>43770.441435185225</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>56</v>
       </c>
@@ -33305,7 +33424,7 @@
         <v>43770.445046296336</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>56</v>
       </c>
@@ -33360,7 +33479,7 @@
         <v>43770.448680555593</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>56</v>
       </c>
@@ -33415,7 +33534,7 @@
         <v>43770.455914351893</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>56</v>
       </c>
@@ -33470,7 +33589,7 @@
         <v>43770.459560185227</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>56</v>
       </c>
@@ -33525,7 +33644,7 @@
         <v>43770.463194444485</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>56</v>
       </c>
@@ -33580,7 +33699,7 @@
         <v>43770.466793981519</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>56</v>
       </c>
@@ -33635,7 +33754,7 @@
         <v>43770.470416666707</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>56</v>
       </c>
@@ -33690,7 +33809,7 @@
         <v>43770.474039351895</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>56</v>
       </c>
@@ -33745,7 +33864,7 @@
         <v>43770.481284722264</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>56</v>
       </c>
@@ -33800,7 +33919,7 @@
         <v>43770.484942129668</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>56</v>
       </c>
@@ -33855,7 +33974,7 @@
         <v>43770.495787037078</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>56</v>
       </c>
@@ -33910,7 +34029,7 @@
         <v>43770.499421296336</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>56</v>
       </c>
@@ -33965,7 +34084,7 @@
         <v>43770.503043981524</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>56</v>
       </c>
@@ -34020,7 +34139,7 @@
         <v>43770.506666666712</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>56</v>
       </c>
@@ -34075,7 +34194,7 @@
         <v>43770.5102893519</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>56</v>
       </c>
@@ -34130,7 +34249,7 @@
         <v>43770.528414351902</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>56</v>
       </c>
@@ -34185,7 +34304,7 @@
         <v>43770.532025463013</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>56</v>
       </c>
@@ -34240,7 +34359,7 @@
         <v>43770.535694444494</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>55</v>
       </c>
@@ -34295,7 +34414,7 @@
         <v>43770.539282407459</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>55</v>
       </c>
@@ -34350,7 +34469,7 @@
         <v>43770.542928240793</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>55</v>
       </c>
@@ -34405,7 +34524,7 @@
         <v>43770.550173611162</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>55</v>
       </c>
@@ -34460,7 +34579,7 @@
         <v>43770.553761574127</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>55</v>
       </c>
@@ -34515,7 +34634,7 @@
         <v>43770.557430555607</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>55</v>
       </c>
@@ -34570,7 +34689,7 @@
         <v>43770.561006944496</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>55</v>
       </c>
@@ -34625,7 +34744,7 @@
         <v>43770.56465277783</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>55</v>
       </c>
@@ -34680,7 +34799,7 @@
         <v>43770.568287037087</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>55</v>
       </c>
@@ -34735,7 +34854,7 @@
         <v>43770.571886574122</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>56</v>
       </c>
@@ -34790,7 +34909,7 @@
         <v>43770.575520833379</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>56</v>
       </c>
@@ -34845,7 +34964,7 @@
         <v>43770.579143518567</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>56</v>
       </c>
@@ -34900,7 +35019,7 @@
         <v>43770.582789351902</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>56</v>
       </c>
@@ -34955,7 +35074,7 @@
         <v>43770.586388888936</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>56</v>
       </c>
@@ -35010,7 +35129,7 @@
         <v>43770.590023148194</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>56</v>
       </c>
@@ -35065,7 +35184,7 @@
         <v>43770.597256944493</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>56</v>
       </c>
@@ -35120,7 +35239,7 @@
         <v>43770.604502314862</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>56</v>
       </c>
@@ -35175,7 +35294,7 @@
         <v>43770.608136574119</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>56</v>
       </c>
@@ -35230,7 +35349,7 @@
         <v>43770.611770833377</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>56</v>
       </c>
@@ -35285,7 +35404,7 @@
         <v>43770.615416666711</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>56</v>
       </c>
@@ -35340,7 +35459,7 @@
         <v>43770.619004629676</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>56</v>
       </c>
@@ -35395,7 +35514,7 @@
         <v>43770.622638888934</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>56</v>
       </c>
@@ -35450,7 +35569,7 @@
         <v>43770.626307870414</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>56</v>
       </c>
@@ -35505,7 +35624,7 @@
         <v>43770.629872685226</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>56</v>
       </c>
@@ -35560,7 +35679,7 @@
         <v>43770.633530092629</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>56</v>
       </c>
@@ -35615,7 +35734,7 @@
         <v>43770.637129629664</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>56</v>
       </c>
@@ -35670,7 +35789,7 @@
         <v>43770.640763888921</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>56</v>
       </c>
@@ -35725,7 +35844,7 @@
         <v>43770.64800925929</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>56</v>
       </c>
@@ -35780,7 +35899,7 @@
         <v>43770.651655092624</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>56</v>
       </c>
@@ -35835,7 +35954,7 @@
         <v>43770.655254629659</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>56</v>
       </c>
@@ -35890,7 +36009,7 @@
         <v>43770.65886574077</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>56</v>
       </c>
@@ -35945,7 +36064,7 @@
         <v>43770.662488425958</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>56</v>
       </c>
@@ -36000,7 +36119,7 @@
         <v>43770.666145833362</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>56</v>
       </c>
@@ -36055,7 +36174,7 @@
         <v>43770.669745370396</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>56</v>
       </c>
@@ -36110,7 +36229,7 @@
         <v>43770.673414351877</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>56</v>
       </c>
@@ -36165,7 +36284,7 @@
         <v>43770.680625000023</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>56</v>
       </c>
@@ -36220,7 +36339,7 @@
         <v>43770.684236111134</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>56</v>
       </c>
@@ -36275,7 +36394,7 @@
         <v>43770.687858796322</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>56</v>
       </c>
@@ -36330,7 +36449,7 @@
         <v>43770.691504629656</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>56</v>
       </c>
@@ -36385,7 +36504,7 @@
         <v>43770.695115740768</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>57</v>
       </c>
@@ -36440,7 +36559,7 @@
         <v>43770.738599537064</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>57</v>
       </c>
@@ -36495,7 +36614,7 @@
         <v>43770.742222222252</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>57</v>
       </c>
@@ -36550,7 +36669,7 @@
         <v>43770.74584490744</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>57</v>
       </c>
@@ -36605,7 +36724,7 @@
         <v>43770.753101851886</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>57</v>
       </c>
@@ -36660,7 +36779,7 @@
         <v>43770.75674768522</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>57</v>
       </c>
@@ -36715,7 +36834,7 @@
         <v>43770.763993055589</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>57</v>
       </c>
@@ -36770,7 +36889,7 @@
         <v>43770.767592592623</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>57</v>
       </c>
@@ -36825,7 +36944,7 @@
         <v>43770.774872685215</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>57</v>
       </c>
@@ -36880,7 +36999,7 @@
         <v>43770.782106481514</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>57</v>
       </c>
@@ -36935,7 +37054,7 @@
         <v>43770.785706018549</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>57</v>
       </c>
@@ -36990,7 +37109,7 @@
         <v>43770.789363425953</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>57</v>
       </c>
@@ -37045,7 +37164,7 @@
         <v>43770.792962962987</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>57</v>
       </c>
@@ -37100,7 +37219,7 @@
         <v>43770.796585648175</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>57</v>
       </c>
@@ -37155,7 +37274,7 @@
         <v>43770.800231481509</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>57</v>
       </c>
@@ -37210,7 +37329,7 @@
         <v>43770.803831018544</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>57</v>
       </c>
@@ -37265,7 +37384,7 @@
         <v>43770.807500000024</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>57</v>
       </c>
@@ -37320,7 +37439,7 @@
         <v>43770.811157407428</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>57</v>
       </c>
@@ -37375,7 +37494,7 @@
         <v>43770.81471064817</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>57</v>
       </c>
@@ -37430,7 +37549,7 @@
         <v>43770.818356481504</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>57</v>
       </c>
@@ -37485,7 +37604,7 @@
         <v>43770.821979166692</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>57</v>
       </c>
@@ -37540,7 +37659,7 @@
         <v>43770.825590277804</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>57</v>
       </c>
@@ -37595,7 +37714,7 @@
         <v>43770.829201388915</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>57</v>
       </c>
@@ -37650,7 +37769,7 @@
         <v>43770.836446759284</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>57</v>
       </c>
@@ -37705,7 +37824,7 @@
         <v>43770.840092592618</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>57</v>
       </c>
@@ -37760,7 +37879,7 @@
         <v>43770.847326388917</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>57</v>
       </c>
@@ -37815,7 +37934,7 @@
         <v>43770.850949074105</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>57</v>
       </c>
@@ -37870,7 +37989,7 @@
         <v>43770.858194444474</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>57</v>
       </c>
@@ -37925,7 +38044,7 @@
         <v>43770.86545138892</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>57</v>
       </c>
@@ -37980,7 +38099,7 @@
         <v>43770.869062500031</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>57</v>
       </c>
@@ -38035,7 +38154,7 @@
         <v>43770.872696759288</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>57</v>
       </c>
@@ -38090,7 +38209,7 @@
         <v>43770.876319444476</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>57</v>
       </c>
@@ -38145,7 +38264,7 @@
         <v>43770.879942129664</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>57</v>
       </c>
@@ -38200,7 +38319,7 @@
         <v>43770.883576388922</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>57</v>
       </c>
@@ -38255,7 +38374,7 @@
         <v>43770.887187500033</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>57</v>
       </c>
@@ -38310,7 +38429,7 @@
         <v>43770.890821759291</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>57</v>
       </c>
@@ -38365,7 +38484,7 @@
         <v>43770.898078703736</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>57</v>
       </c>
@@ -38420,7 +38539,7 @@
         <v>43770.905300925959</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>57</v>
       </c>
@@ -38475,7 +38594,7 @@
         <v>43770.908923611147</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>57</v>
       </c>
@@ -38530,7 +38649,7 @@
         <v>43770.912569444481</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>57</v>
       </c>
@@ -38585,7 +38704,7 @@
         <v>43770.916168981516</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>57</v>
       </c>
@@ -38640,7 +38759,7 @@
         <v>43770.919803240773</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>57</v>
       </c>
@@ -38695,7 +38814,7 @@
         <v>43770.923437500031</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>57</v>
       </c>
@@ -38750,7 +38869,7 @@
         <v>43770.927106481511</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>57</v>
       </c>
@@ -38805,7 +38924,7 @@
         <v>43770.934305555587</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>57</v>
       </c>
@@ -38860,7 +38979,7 @@
         <v>43770.937962962991</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>57</v>
       </c>
@@ -38915,7 +39034,7 @@
         <v>43770.941550925956</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>57</v>
       </c>
@@ -38970,7 +39089,7 @@
         <v>43770.945162037067</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>57</v>
       </c>
@@ -39025,7 +39144,7 @@
         <v>43770.948807870402</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>57</v>
       </c>
@@ -39080,7 +39199,7 @@
         <v>43770.959675925958</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>57</v>
       </c>
@@ -39135,7 +39254,7 @@
         <v>43770.963310185216</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>57</v>
       </c>
@@ -39190,7 +39309,7 @@
         <v>43770.966944444473</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>57</v>
       </c>
@@ -39245,7 +39364,7 @@
         <v>43770.970543981508</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>57</v>
       </c>
@@ -39300,7 +39419,7 @@
         <v>43770.974189814842</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>57</v>
       </c>
@@ -39355,7 +39474,7 @@
         <v>43770.981423611142</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>57</v>
       </c>
@@ -39410,7 +39529,7 @@
         <v>43770.985034722253</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>57</v>
       </c>
@@ -39465,7 +39584,7 @@
         <v>43770.988680555587</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>57</v>
       </c>
@@ -39520,7 +39639,7 @@
         <v>43770.992291666698</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>57</v>
       </c>
@@ -39575,7 +39694,7 @@
         <v>43770.995914351886</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>57</v>
       </c>
@@ -39630,7 +39749,7 @@
         <v>43770.999525462998</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>57</v>
       </c>
@@ -39684,7 +39803,7 @@
         <v>43771.003159722219</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>57</v>
       </c>
@@ -39739,7 +39858,7 @@
         <v>43771.00677083333</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>57</v>
       </c>
@@ -39794,7 +39913,7 @@
         <v>43771.014027777775</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>57</v>
       </c>
@@ -39849,7 +39968,7 @@
         <v>43771.017638888887</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>57</v>
       </c>
@@ -39904,7 +40023,7 @@
         <v>43771.021273148144</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>57</v>
       </c>
@@ -39959,7 +40078,7 @@
         <v>43771.024895833332</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>57</v>
       </c>
@@ -40014,7 +40133,7 @@
         <v>43771.02851851852</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>57</v>
       </c>
@@ -40069,7 +40188,7 @@
         <v>43771.032152777778</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>57</v>
       </c>
@@ -40124,7 +40243,7 @@
         <v>43771.035763888889</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>57</v>
       </c>
@@ -40179,7 +40298,7 @@
         <v>43771.039409722223</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>57</v>
       </c>
@@ -40234,7 +40353,7 @@
         <v>43771.043009259258</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>57</v>
       </c>
@@ -40289,7 +40408,7 @@
         <v>43771.046643518515</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>57</v>
       </c>
@@ -40344,7 +40463,7 @@
         <v>43771.050277777773</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>57</v>
       </c>
@@ -40399,7 +40518,7 @@
         <v>43771.097384259258</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>57</v>
       </c>
@@ -40454,7 +40573,7 @@
         <v>43771.100995370369</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>58</v>
       </c>
@@ -40509,7 +40628,7 @@
         <v>43771.104629629626</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>57</v>
       </c>
@@ -40564,7 +40683,7 @@
         <v>43771.108240740738</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>57</v>
       </c>
@@ -40619,7 +40738,7 @@
         <v>43771.111874999995</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>58</v>
       </c>
@@ -40674,7 +40793,7 @@
         <v>43771.115520833329</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>58</v>
       </c>
@@ -40729,7 +40848,7 @@
         <v>43771.119120370364</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>58</v>
       </c>
@@ -40784,7 +40903,7 @@
         <v>43771.122754629621</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>58</v>
       </c>
@@ -40839,7 +40958,7 @@
         <v>43771.126377314809</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>58</v>
       </c>
@@ -40894,7 +41013,7 @@
         <v>43771.130011574067</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>58</v>
       </c>
@@ -40949,7 +41068,7 @@
         <v>43771.133611111101</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>58</v>
       </c>
@@ -41004,7 +41123,7 @@
         <v>43771.137245370359</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>58</v>
       </c>
@@ -41059,7 +41178,7 @@
         <v>43771.14085648147</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>58</v>
       </c>
@@ -41114,7 +41233,7 @@
         <v>43771.144479166658</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>58</v>
       </c>
@@ -41169,7 +41288,7 @@
         <v>43771.148101851846</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>58</v>
       </c>
@@ -41224,7 +41343,7 @@
         <v>43771.151736111104</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>58</v>
       </c>
@@ -41279,7 +41398,7 @@
         <v>43771.155393518507</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>58</v>
       </c>
@@ -41334,7 +41453,7 @@
         <v>43771.158993055542</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>58</v>
       </c>
@@ -41389,7 +41508,7 @@
         <v>43771.16261574073</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>58</v>
       </c>
@@ -41444,7 +41563,7 @@
         <v>43771.166226851841</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>58</v>
       </c>
@@ -41499,7 +41618,7 @@
         <v>43771.169861111099</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>58</v>
       </c>
@@ -41554,7 +41673,7 @@
         <v>43771.180740740725</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>58</v>
       </c>
@@ -41609,7 +41728,7 @@
         <v>43771.184351851836</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>58</v>
       </c>
@@ -41664,7 +41783,7 @@
         <v>43771.191597222205</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>58</v>
       </c>
@@ -41719,7 +41838,7 @@
         <v>43771.195243055539</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>58</v>
       </c>
@@ -41774,7 +41893,7 @@
         <v>43771.198865740727</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>58</v>
       </c>
@@ -41829,7 +41948,7 @@
         <v>43771.202488425915</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>58</v>
       </c>
@@ -41884,7 +42003,7 @@
         <v>43771.206111111103</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>58</v>
       </c>
@@ -41939,7 +42058,7 @@
         <v>43771.209733796291</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>58</v>
       </c>
@@ -41994,7 +42113,7 @@
         <v>43771.213344907403</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>58</v>
       </c>
@@ -42049,7 +42168,7 @@
         <v>43771.216956018514</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>58</v>
       </c>
@@ -42104,7 +42223,7 @@
         <v>43771.220601851848</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>58</v>
       </c>
@@ -42159,7 +42278,7 @@
         <v>43771.227835648147</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>58</v>
       </c>
@@ -42214,7 +42333,7 @@
         <v>43771.235081018516</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>58</v>
       </c>
@@ -42269,7 +42388,7 @@
         <v>43771.238726851851</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>58</v>
       </c>
@@ -42324,7 +42443,7 @@
         <v>43771.242349537039</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>58</v>
       </c>
@@ -42379,7 +42498,7 @@
         <v>43771.24596064815</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>58</v>
       </c>
@@ -42434,7 +42553,7 @@
         <v>43771.249583333338</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>58</v>
       </c>
@@ -42489,7 +42608,7 @@
         <v>43771.253217592595</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>58</v>
       </c>
@@ -42544,7 +42663,7 @@
         <v>43771.256840277783</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>58</v>
       </c>
@@ -42599,7 +42718,7 @@
         <v>43771.264085648152</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>58</v>
       </c>
@@ -42654,7 +42773,7 @@
         <v>43771.267696759263</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>58</v>
       </c>
@@ -42709,7 +42828,7 @@
         <v>43771.271331018521</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>58</v>
       </c>
@@ -42764,7 +42883,7 @@
         <v>43771.274953703709</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>58</v>
       </c>
@@ -42819,7 +42938,7 @@
         <v>43771.278587962966</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>58</v>
       </c>
@@ -42874,7 +42993,7 @@
         <v>43771.282222222224</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>58</v>
       </c>
@@ -42929,7 +43048,7 @@
         <v>43771.289456018523</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>58</v>
       </c>
@@ -42984,7 +43103,7 @@
         <v>43771.293067129634</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>58</v>
       </c>
@@ -43039,7 +43158,7 @@
         <v>43771.300312500003</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>58</v>
       </c>
@@ -43094,7 +43213,7 @@
         <v>43771.303981481484</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>58</v>
       </c>
@@ -43149,7 +43268,7 @@
         <v>43771.307569444449</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>58</v>
       </c>
@@ -43204,7 +43323,7 @@
         <v>43771.314826388894</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>58</v>
       </c>
@@ -43259,7 +43378,7 @@
         <v>43771.318449074082</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>58</v>
       </c>
@@ -43314,7 +43433,7 @@
         <v>43771.322106481486</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>58</v>
       </c>
@@ -43369,7 +43488,7 @@
         <v>43771.332928240743</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>58</v>
       </c>
@@ -43424,7 +43543,7 @@
         <v>43771.336574074077</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>58</v>
       </c>
@@ -43479,7 +43598,7 @@
         <v>43771.340185185189</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>58</v>
       </c>
@@ -43534,7 +43653,7 @@
         <v>43771.343831018523</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>58</v>
       </c>
@@ -43589,7 +43708,7 @@
         <v>43771.347453703711</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>57</v>
       </c>
@@ -43644,7 +43763,7 @@
         <v>43771.351064814822</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>57</v>
       </c>
@@ -43699,7 +43818,7 @@
         <v>43771.35468750001</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>57</v>
       </c>
@@ -43754,7 +43873,7 @@
         <v>43771.361932870379</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>57</v>
       </c>
@@ -43809,7 +43928,7 @@
         <v>43771.369178240748</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>58</v>
       </c>
@@ -43864,7 +43983,7 @@
         <v>43771.372800925936</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>57</v>
       </c>
@@ -43919,7 +44038,7 @@
         <v>43771.380057870381</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>57</v>
       </c>
@@ -43974,7 +44093,7 @@
         <v>43771.383668981493</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>57</v>
       </c>
@@ -44029,7 +44148,7 @@
         <v>43771.387326388896</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>57</v>
       </c>
@@ -44084,7 +44203,7 @@
         <v>43771.390937500008</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>57</v>
       </c>
@@ -44139,7 +44258,7 @@
         <v>43771.394548611119</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>57</v>
       </c>
@@ -44194,7 +44313,7 @@
         <v>43771.398171296307</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>58</v>
       </c>
@@ -44249,7 +44368,7 @@
         <v>43771.401793981495</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>57</v>
       </c>
@@ -44304,7 +44423,7 @@
         <v>43771.409039351864</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>57</v>
       </c>
@@ -44359,7 +44478,7 @@
         <v>43771.412673611121</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>57</v>
       </c>
@@ -44414,7 +44533,7 @@
         <v>43771.416284722232</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>57</v>
       </c>
@@ -44469,7 +44588,7 @@
         <v>43771.423541666678</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>57</v>
       </c>
@@ -44524,7 +44643,7 @@
         <v>43771.427210648159</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>57</v>
       </c>
@@ -44579,7 +44698,7 @@
         <v>43771.430833333347</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>57</v>
       </c>
@@ -44634,7 +44753,7 @@
         <v>43771.434432870381</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>57</v>
       </c>
@@ -44689,7 +44808,7 @@
         <v>43771.438055555569</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>57</v>
       </c>
@@ -44744,7 +44863,7 @@
         <v>43771.441655092603</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>57</v>
       </c>
@@ -44799,7 +44918,7 @@
         <v>43771.445312500007</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>57</v>
       </c>
@@ -44854,7 +44973,7 @@
         <v>43771.448900462972</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>57</v>
       </c>
@@ -44909,7 +45028,7 @@
         <v>43771.452557870376</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>57</v>
       </c>
@@ -44964,7 +45083,7 @@
         <v>43771.456157407411</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>57</v>
       </c>
@@ -45019,7 +45138,7 @@
         <v>43771.459791666668</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>57</v>
       </c>
@@ -45074,7 +45193,7 @@
         <v>43771.463402777779</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>57</v>
       </c>
@@ -45129,7 +45248,7 @@
         <v>43771.467025462967</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>57</v>
       </c>
@@ -45184,7 +45303,7 @@
         <v>43771.470659722225</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>57</v>
       </c>
@@ -45239,7 +45358,7 @@
         <v>43771.474293981482</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>57</v>
       </c>
@@ -45294,7 +45413,7 @@
         <v>43771.477905092594</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>57</v>
       </c>
@@ -45349,7 +45468,7 @@
         <v>43771.485138888893</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>57</v>
       </c>
@@ -45404,7 +45523,7 @@
         <v>43771.48881944445</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>57</v>
       </c>
@@ -45459,7 +45578,7 @@
         <v>43771.492395833338</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>57</v>
       </c>
@@ -45514,7 +45633,7 @@
         <v>43771.49600694445</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>57</v>
       </c>
@@ -45569,7 +45688,7 @@
         <v>43771.499641203707</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>57</v>
       </c>
@@ -45624,7 +45743,7 @@
         <v>43771.503263888895</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>57</v>
       </c>
@@ -45679,7 +45798,7 @@
         <v>43771.506898148153</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>56</v>
       </c>
@@ -45734,7 +45853,7 @@
         <v>43771.510555555556</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>56</v>
       </c>
@@ -45789,7 +45908,7 @@
         <v>43771.514155092591</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>56</v>
       </c>
@@ -45844,7 +45963,7 @@
         <v>43771.517789351848</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>56</v>
       </c>
@@ -45899,7 +46018,7 @@
         <v>43771.528622685182</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>56</v>
       </c>
@@ -45954,7 +46073,7 @@
         <v>43771.53224537037</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>56</v>
       </c>
@@ -46009,7 +46128,7 @@
         <v>43771.535925925928</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>56</v>
       </c>
@@ -46064,7 +46183,7 @@
         <v>43771.539502314816</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>56</v>
       </c>
@@ -46119,7 +46238,7 @@
         <v>43771.543136574073</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>56</v>
       </c>
@@ -46174,7 +46293,7 @@
         <v>43771.546747685185</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>56</v>
       </c>
@@ -46229,7 +46348,7 @@
         <v>43771.550393518519</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>56</v>
       </c>
@@ -46284,7 +46403,7 @@
         <v>43771.554027777776</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>56</v>
       </c>
@@ -46339,7 +46458,7 @@
         <v>43771.561249999999</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>56</v>
       </c>
@@ -46394,7 +46513,7 @@
         <v>43771.56486111111</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>56</v>
       </c>
@@ -46449,7 +46568,7 @@
         <v>43771.568495370368</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>56</v>
       </c>
@@ -46504,7 +46623,7 @@
         <v>43771.572222222218</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>56</v>
       </c>
@@ -46559,7 +46678,7 @@
         <v>43771.575798611106</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>56</v>
       </c>
@@ -46614,7 +46733,7 @@
         <v>43771.582986111105</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>56</v>
       </c>
@@ -46669,7 +46788,7 @@
         <v>43771.586620370363</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>56</v>
       </c>
@@ -46724,7 +46843,7 @@
         <v>43771.593888888878</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>57</v>
       </c>
@@ -46779,7 +46898,7 @@
         <v>43771.604745370358</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>57</v>
       </c>
@@ -46834,7 +46953,7 @@
         <v>43771.608356481469</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>57</v>
       </c>
@@ -46889,7 +47008,7 @@
         <v>43771.612037037026</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>57</v>
       </c>
@@ -46944,7 +47063,7 @@
         <v>43771.615613425914</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>57</v>
       </c>
@@ -46999,7 +47118,7 @@
         <v>43771.619282407395</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>57</v>
       </c>
@@ -47054,7 +47173,7 @@
         <v>43771.622858796283</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>57</v>
       </c>
@@ -47109,7 +47228,7 @@
         <v>43771.626516203687</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>57</v>
       </c>
@@ -47164,7 +47283,7 @@
         <v>43771.630104166652</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>57</v>
       </c>
@@ -47219,7 +47338,7 @@
         <v>43771.633749999986</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>57</v>
       </c>
@@ -47274,7 +47393,7 @@
         <v>43771.637418981467</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>57</v>
       </c>
@@ -47329,7 +47448,7 @@
         <v>43771.644606481466</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>57</v>
       </c>
@@ -47384,7 +47503,7 @@
         <v>43771.659085648134</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>57</v>
       </c>
@@ -47439,7 +47558,7 @@
         <v>43771.662719907392</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>57</v>
       </c>
@@ -47494,7 +47613,7 @@
         <v>43771.66634259258</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>57</v>
       </c>
@@ -47549,7 +47668,7 @@
         <v>43771.669965277768</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>57</v>
       </c>
@@ -47604,7 +47723,7 @@
         <v>43771.673587962956</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>57</v>
       </c>
@@ -47659,7 +47778,7 @@
         <v>43771.67724537036</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>57</v>
       </c>
@@ -47714,7 +47833,7 @@
         <v>43771.680833333325</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>57</v>
       </c>
@@ -47769,7 +47888,7 @@
         <v>43771.684456018513</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>57</v>
       </c>
@@ -47824,7 +47943,7 @@
         <v>43771.688078703701</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>57</v>
       </c>
@@ -47879,7 +47998,7 @@
         <v>43771.691712962958</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>57</v>
       </c>
@@ -47934,7 +48053,7 @@
         <v>43771.695335648146</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>57</v>
       </c>
@@ -47989,7 +48108,7 @@
         <v>43771.698969907404</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>57</v>
       </c>
@@ -48044,7 +48163,7 @@
         <v>43771.702592592592</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>57</v>
       </c>
@@ -48099,7 +48218,7 @@
         <v>43771.706249999996</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>57</v>
       </c>
@@ -48154,7 +48273,7 @@
         <v>43771.709826388884</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>57</v>
       </c>
@@ -48209,7 +48328,7 @@
         <v>43771.713449074072</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>57</v>
       </c>
@@ -48264,7 +48383,7 @@
         <v>43771.717106481476</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>57</v>
       </c>
@@ -48319,7 +48438,7 @@
         <v>43771.720775462956</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>57</v>
       </c>
@@ -48374,7 +48493,7 @@
         <v>43771.724328703698</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>58</v>
       </c>
@@ -48429,7 +48548,7 @@
         <v>43771.727962962956</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>58</v>
       </c>
@@ -48484,7 +48603,7 @@
         <v>43771.731574074067</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>58</v>
       </c>
@@ -48539,7 +48658,7 @@
         <v>43771.742453703693</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>58</v>
       </c>
@@ -48594,7 +48713,7 @@
         <v>43771.746087962951</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>58</v>
       </c>
@@ -48649,7 +48768,7 @@
         <v>43771.749710648139</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>58</v>
       </c>
@@ -48704,7 +48823,7 @@
         <v>43771.760567129619</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>58</v>
       </c>
@@ -48759,7 +48878,7 @@
         <v>43771.764189814807</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>58</v>
       </c>
@@ -48814,7 +48933,7 @@
         <v>43771.767812499995</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>58</v>
       </c>
@@ -48869,7 +48988,7 @@
         <v>43771.771458333329</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>58</v>
       </c>
@@ -48924,7 +49043,7 @@
         <v>43771.775081018517</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>58</v>
       </c>
@@ -48979,7 +49098,7 @@
         <v>43771.778738425921</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>58</v>
       </c>
@@ -49034,7 +49153,7 @@
         <v>43771.782326388886</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>58</v>
       </c>
@@ -49089,7 +49208,7 @@
         <v>43771.793206018512</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>58</v>
       </c>
@@ -49144,7 +49263,7 @@
         <v>43771.800451388881</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>58</v>
       </c>
@@ -49199,7 +49318,7 @@
         <v>43771.804050925915</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>58</v>
       </c>
@@ -49254,7 +49373,7 @@
         <v>43771.80769675925</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>58</v>
       </c>
@@ -49309,7 +49428,7 @@
         <v>43771.811342592584</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>58</v>
       </c>
@@ -49364,7 +49483,7 @@
         <v>43771.814930555549</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>58</v>
       </c>
@@ -49419,7 +49538,7 @@
         <v>43771.825844907398</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>58</v>
       </c>
@@ -49474,7 +49593,7 @@
         <v>43771.829421296286</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>58</v>
       </c>
@@ -49529,7 +49648,7 @@
         <v>43771.833055555544</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>58</v>
       </c>
@@ -49584,7 +49703,7 @@
         <v>43771.836701388878</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>58</v>
       </c>
@@ -49639,25 +49758,25 @@
         <v>43771.843993055547</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
         <v>20</v>
       </c>
@@ -49670,7 +49789,7 @@
       </c>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
         <v>21</v>
       </c>
@@ -49684,7 +49803,7 @@
       </c>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>23</v>
       </c>
@@ -49697,10 +49816,10 @@
       </c>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E474" s="2" t="s">
         <v>30</v>
       </c>
@@ -49713,16 +49832,24 @@
       </c>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F476" s="2">
+        <f>300*F474/100</f>
+        <v>230.33898305084745</v>
+      </c>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F477" s="2">
+        <f>230/300</f>
+        <v>0.76666666666666672</v>
+      </c>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O478" s="3"/>
     </row>
   </sheetData>
@@ -49732,12 +49859,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
